--- a/Lista zaduženja_StalkerSoup.xlsx
+++ b/Lista zaduženja_StalkerSoup.xlsx
@@ -764,13 +764,13 @@
     <t>string_table_text_after_1100</t>
   </si>
   <si>
-    <t>150 - komada</t>
-  </si>
-  <si>
     <t>stable_dialogs_tb3d_2</t>
   </si>
   <si>
-    <t>11 - komada</t>
+    <t>9- komada</t>
+  </si>
+  <si>
+    <t>152 - komada</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1536,7 @@
     <xf numFmtId="49" fontId="20" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130:K130"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,13 +2360,13 @@
         <v>7</v>
       </c>
       <c r="M14" s="79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="23">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="R14" s="1"/>
     </row>
@@ -2967,11 +2967,15 @@
       <c r="L32" s="22">
         <v>5</v>
       </c>
-      <c r="M32" s="81"/>
+      <c r="M32" s="81" t="s">
+        <v>173</v>
+      </c>
       <c r="N32" s="82"/>
       <c r="O32" s="82"/>
       <c r="P32" s="83"/>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="27">
+        <v>175</v>
+      </c>
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3383,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="M46" s="79" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="N46" s="80"/>
       <c r="O46" s="80"/>
       <c r="P46" s="80"/>
       <c r="Q46" s="23">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="R46" s="1"/>
     </row>
@@ -4183,11 +4187,15 @@
       <c r="G72" s="21">
         <v>7</v>
       </c>
-      <c r="H72" s="29"/>
+      <c r="H72" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="22"/>
+      <c r="L72" s="22">
+        <v>148</v>
+      </c>
       <c r="M72" s="30"/>
       <c r="N72" s="31"/>
       <c r="O72" s="31"/>
@@ -5117,15 +5125,11 @@
       <c r="G107" s="21">
         <v>42</v>
       </c>
-      <c r="H107" s="29" t="s">
-        <v>189</v>
-      </c>
+      <c r="H107" s="29"/>
       <c r="I107" s="29"/>
       <c r="J107" s="29"/>
       <c r="K107" s="29"/>
-      <c r="L107" s="22">
-        <v>18</v>
-      </c>
+      <c r="L107" s="22"/>
       <c r="M107" s="30"/>
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
@@ -5193,14 +5197,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C110" s="28" t="s">
-        <v>170</v>
+      <c r="C110" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
       <c r="G110" s="21">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H110" s="29"/>
       <c r="I110" s="29"/>
@@ -5220,14 +5224,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C111" s="28" t="s">
-        <v>171</v>
+      <c r="C111" s="43" t="s">
+        <v>188</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
       <c r="G111" s="21">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H111" s="29"/>
       <c r="I111" s="29"/>
@@ -5302,13 +5306,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
       <c r="G114" s="21">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H114" s="29"/>
       <c r="I114" s="29"/>
@@ -5355,15 +5359,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C116" s="28" t="s">
-        <v>176</v>
-      </c>
+      <c r="C116" s="28"/>
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
-      <c r="G116" s="21">
-        <v>77</v>
-      </c>
+      <c r="G116" s="21"/>
       <c r="H116" s="29"/>
       <c r="I116" s="29"/>
       <c r="J116" s="29"/>
@@ -5390,7 +5390,7 @@
       <c r="I117" s="86"/>
       <c r="J117" s="88">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>42304</v>
+        <v>42363</v>
       </c>
       <c r="K117" s="88"/>
       <c r="L117" s="88"/>
@@ -5471,7 +5471,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="12"/>
       <c r="C121" s="44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5485,7 +5485,7 @@
       <c r="K121" s="46"/>
       <c r="L121" s="50"/>
       <c r="M121" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N121" s="45"/>
       <c r="O121" s="45"/>
@@ -5560,7 +5560,7 @@
       <c r="B125" s="12"/>
       <c r="C125" s="35">
         <f>SUM(G14:G43,L14:L43,Q21:Q43,G46:G75,L46:L75,Q53:Q75,G78:G87,L78:L87,Q85:Q87,G90:G104,L90:L104,Q97:Q104)</f>
-        <v>3272</v>
+        <v>3595</v>
       </c>
       <c r="D125" s="36"/>
       <c r="E125" s="39" t="s">
@@ -5570,7 +5570,7 @@
       <c r="G125" s="50"/>
       <c r="H125" s="35">
         <f>SUM(Q14:Q15,Q18:Q20,Q46:Q47,Q50:Q52,Q78:Q79,Q82:Q84,Q90:Q91,Q94:Q96)</f>
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="I125" s="36"/>
       <c r="J125" s="39" t="s">
@@ -5580,7 +5580,7 @@
       <c r="L125" s="50"/>
       <c r="M125" s="35">
         <f>SUM(G107:G116,L107:L116)</f>
-        <v>1137</v>
+        <v>959</v>
       </c>
       <c r="N125" s="36"/>
       <c r="O125" s="39" t="s">

--- a/Lista zaduženja_StalkerSoup.xlsx
+++ b/Lista zaduženja_StalkerSoup.xlsx
@@ -743,54 +743,46 @@
     <t>Broj neodrađenih fajlova</t>
   </si>
   <si>
+    <t>Skupa u Mb/Kb po odsjeku</t>
+  </si>
+  <si>
+    <t>Mb</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>stable_dialogs_part_1</t>
+  </si>
+  <si>
+    <t>stable_dialogs_part_2</t>
+  </si>
+  <si>
+    <t>string_table_text_after_1100</t>
+  </si>
+  <si>
+    <t>stable_dialogs_tb3d_2</t>
+  </si>
+  <si>
+    <t>153 - komada</t>
+  </si>
+  <si>
     <t>3 - komada</t>
   </si>
   <si>
-    <t>Skupa u Mb/Kb po odsjeku</t>
-  </si>
-  <si>
-    <t>Mb</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>stable_dialogs_part_1</t>
-  </si>
-  <si>
-    <t>stable_dialogs_part_2</t>
-  </si>
-  <si>
-    <t>string_table_text_after_1100</t>
-  </si>
-  <si>
-    <t>stable_dialogs_tb3d_2</t>
-  </si>
-  <si>
-    <t>9- komada</t>
-  </si>
-  <si>
-    <t>152 - komada</t>
+    <t>8 - komada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1430,41 +1422,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1491,165 +1483,147 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1659,67 +1633,82 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2036,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121:F122"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,131 +2061,131 @@
     </row>
     <row r="2" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="1"/>
     </row>
@@ -2205,22 +2194,22 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="1"/>
     </row>
@@ -2229,42 +2218,42 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="1"/>
     </row>
@@ -2273,66 +2262,66 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="75" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="78" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="1"/>
     </row>
@@ -2341,32 +2330,32 @@
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="21">
         <v>23</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="22">
         <v>7</v>
       </c>
-      <c r="M14" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
+      <c r="M14" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
       <c r="Q14" s="23">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="R14" s="1"/>
     </row>
@@ -2376,28 +2365,28 @@
         <f>B14+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="21">
         <v>17</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="22">
         <v>11</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="1"/>
     </row>
@@ -2407,31 +2396,31 @@
         <f t="shared" ref="B16:B82" si="0">B15+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="21">
         <v>157</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="22">
         <v>1</v>
       </c>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="66"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2440,29 +2429,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="21">
         <v>23</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="22">
         <v>1</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="69"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2471,28 +2460,28 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="21">
         <v>41</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="22">
         <v>2</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="1"/>
     </row>
@@ -2502,28 +2491,28 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="21">
         <v>16</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="22">
         <v>3</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="1"/>
     </row>
@@ -2533,28 +2522,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="21">
         <v>48</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="22">
         <v>3</v>
       </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="1"/>
     </row>
@@ -2564,30 +2553,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="21">
         <v>24</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="22">
         <v>3</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
       <c r="Q21" s="27">
         <v>107</v>
       </c>
@@ -2599,30 +2588,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="21">
         <v>2</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="22">
         <v>3</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="M22" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="27">
         <v>92</v>
       </c>
@@ -2634,30 +2623,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="21">
         <v>7</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="22">
         <v>3</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
       <c r="Q23" s="27">
         <v>70</v>
       </c>
@@ -2669,30 +2658,30 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="21">
         <v>7</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="22">
         <v>3</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="62"/>
       <c r="Q24" s="27">
         <v>65</v>
       </c>
@@ -2704,30 +2693,30 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="21">
         <v>2</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="22">
         <v>3</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="32"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
       <c r="Q25" s="27">
         <v>86</v>
       </c>
@@ -2739,30 +2728,30 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="21">
         <v>8</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="22">
         <v>3</v>
       </c>
-      <c r="M26" s="30" t="s">
+      <c r="M26" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
       <c r="Q26" s="27">
         <v>100</v>
       </c>
@@ -2774,30 +2763,30 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="21">
         <v>5</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="22">
         <v>3</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
       <c r="Q27" s="27">
         <v>1</v>
       </c>
@@ -2809,30 +2798,30 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="21">
         <v>8</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="22">
         <v>1</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="M28" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
       <c r="Q28" s="27">
         <v>96</v>
       </c>
@@ -2844,30 +2833,30 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="21">
         <v>2</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="22">
         <v>1</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="32"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
       <c r="Q29" s="27">
         <v>55</v>
       </c>
@@ -2879,30 +2868,30 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="21">
         <v>3</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="22">
         <v>8</v>
       </c>
-      <c r="M30" s="30" t="s">
+      <c r="M30" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="32"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
       <c r="Q30" s="27">
         <v>146</v>
       </c>
@@ -2914,30 +2903,30 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="21">
         <v>7</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="22">
         <v>3</v>
       </c>
-      <c r="M31" s="30" t="s">
+      <c r="M31" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
       <c r="Q31" s="27">
         <v>118</v>
       </c>
@@ -2949,30 +2938,30 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="21">
         <v>2</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
       <c r="L32" s="22">
         <v>5</v>
       </c>
-      <c r="M32" s="81" t="s">
+      <c r="M32" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
       <c r="Q32" s="27">
         <v>175</v>
       </c>
@@ -2984,29 +2973,33 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="21">
         <v>1</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
       <c r="L33" s="22">
         <v>8</v>
       </c>
-      <c r="M33" s="30"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="27"/>
+      <c r="M33" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="27">
+        <v>98</v>
+      </c>
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3015,28 +3008,28 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="21">
         <v>3</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
       <c r="L34" s="22">
         <v>7</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="1"/>
     </row>
@@ -3046,28 +3039,28 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="21">
         <v>2</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
       <c r="L35" s="22">
         <v>6</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="32"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="62"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="1"/>
     </row>
@@ -3077,28 +3070,28 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="21">
         <v>17</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="22">
         <v>109</v>
       </c>
-      <c r="M36" s="30"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="62"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="1"/>
     </row>
@@ -3108,28 +3101,28 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="21">
         <v>13</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="22">
         <v>67</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="1"/>
     </row>
@@ -3139,28 +3132,28 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="21">
         <v>6</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="22">
         <v>189</v>
       </c>
-      <c r="M38" s="30"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="62"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="1"/>
     </row>
@@ -3170,28 +3163,28 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="21">
         <v>1</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
       <c r="L39" s="22">
         <v>81</v>
       </c>
-      <c r="M39" s="30"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="32"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="62"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="1"/>
     </row>
@@ -3201,28 +3194,28 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="21">
         <v>7</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="22">
         <v>54</v>
       </c>
-      <c r="M40" s="30"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="32"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="62"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="1"/>
     </row>
@@ -3232,28 +3225,28 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="21">
         <v>74</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="22">
         <v>7</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="32"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="62"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="1"/>
     </row>
@@ -3263,28 +3256,28 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
       <c r="G42" s="21">
         <v>17</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="22">
         <v>2</v>
       </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="32"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="62"/>
       <c r="Q42" s="27"/>
       <c r="R42" s="1"/>
     </row>
@@ -3294,72 +3287,72 @@
         <f>B42+1</f>
         <v>30</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="21">
         <v>38</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="21">
         <v>33</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="32"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="62"/>
       <c r="Q43" s="27"/>
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="75" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="78" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="1"/>
     </row>
@@ -3368,30 +3361,30 @@
       <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="21">
         <v>23</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="22">
         <v>1</v>
       </c>
-      <c r="M46" s="79" t="s">
+      <c r="M46" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
       <c r="Q46" s="23">
         <v>80</v>
       </c>
@@ -3403,28 +3396,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
       <c r="L47" s="22">
         <v>5</v>
       </c>
-      <c r="M47" s="70"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
       <c r="Q47" s="24"/>
       <c r="R47" s="1"/>
     </row>
@@ -3434,31 +3427,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="21">
         <v>3</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
       <c r="L48" s="22">
         <v>7</v>
       </c>
-      <c r="M48" s="64" t="s">
+      <c r="M48" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="66"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="83"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3467,29 +3460,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="21">
         <v>63</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
       <c r="L49" s="22">
         <v>33</v>
       </c>
-      <c r="M49" s="67"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="69"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="86"/>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3498,28 +3491,28 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
       <c r="G50" s="21">
         <v>7</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
       <c r="L50" s="22">
         <v>2</v>
       </c>
-      <c r="M50" s="70"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="1"/>
     </row>
@@ -3529,26 +3522,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
       <c r="L51" s="22">
         <v>3</v>
       </c>
-      <c r="M51" s="70"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="1"/>
     </row>
@@ -3558,28 +3551,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="21">
         <v>21</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
       <c r="L52" s="22">
         <v>5</v>
       </c>
-      <c r="M52" s="72"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="74"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="70"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="1"/>
     </row>
@@ -3589,28 +3582,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="21">
         <v>10</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
       <c r="L53" s="22">
         <v>3</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="32"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="62"/>
       <c r="Q53" s="27"/>
       <c r="R53" s="1"/>
     </row>
@@ -3620,28 +3613,28 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
       <c r="G54" s="21">
         <v>30</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
       <c r="L54" s="22">
         <v>5</v>
       </c>
-      <c r="M54" s="30"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="32"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="62"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="1"/>
     </row>
@@ -3651,28 +3644,28 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
       <c r="G55" s="21">
         <v>30</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
       <c r="L55" s="22">
         <v>3</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="32"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="62"/>
       <c r="Q55" s="27"/>
       <c r="R55" s="1"/>
     </row>
@@ -3682,28 +3675,28 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="21">
         <v>6</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
       <c r="L56" s="22">
         <v>5</v>
       </c>
-      <c r="M56" s="30"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="32"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="62"/>
       <c r="Q56" s="27"/>
       <c r="R56" s="1"/>
     </row>
@@ -3713,28 +3706,28 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
       <c r="G57" s="21">
         <v>3</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="22">
         <v>2</v>
       </c>
-      <c r="M57" s="30"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="32"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="62"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="1"/>
     </row>
@@ -3744,28 +3737,28 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
       <c r="G58" s="21">
         <v>3</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
       <c r="L58" s="22">
         <v>3</v>
       </c>
-      <c r="M58" s="30"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="32"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="62"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="1"/>
     </row>
@@ -3775,28 +3768,28 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
       <c r="G59" s="21">
         <v>3</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
       <c r="L59" s="22">
         <v>2</v>
       </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="32"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="62"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="1"/>
     </row>
@@ -3806,28 +3799,28 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="21">
         <v>3</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
       <c r="L60" s="22">
         <v>1</v>
       </c>
-      <c r="M60" s="30"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="32"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
       <c r="Q60" s="27"/>
       <c r="R60" s="1"/>
     </row>
@@ -3837,28 +3830,28 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
       <c r="G61" s="21">
         <v>3</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
       <c r="L61" s="22">
         <v>4</v>
       </c>
-      <c r="M61" s="30"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="32"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="62"/>
       <c r="Q61" s="27"/>
       <c r="R61" s="1"/>
     </row>
@@ -3868,28 +3861,28 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
       <c r="G62" s="21">
         <v>3</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
       <c r="L62" s="22">
         <v>2</v>
       </c>
-      <c r="M62" s="30"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="32"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="62"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="1"/>
     </row>
@@ -3899,28 +3892,28 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="21">
         <v>3</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
       <c r="L63" s="22">
         <v>10</v>
       </c>
-      <c r="M63" s="30"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="32"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="62"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="1"/>
     </row>
@@ -3930,28 +3923,28 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
       <c r="G64" s="21">
         <v>2</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
       <c r="L64" s="22">
         <v>35</v>
       </c>
-      <c r="M64" s="81"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="83"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
+      <c r="P64" s="77"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="1"/>
     </row>
@@ -3961,28 +3954,28 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
       <c r="G65" s="21">
         <v>1</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
       <c r="L65" s="22">
         <v>33</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="32"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="27"/>
       <c r="R65" s="1"/>
     </row>
@@ -3992,28 +3985,28 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="21">
         <v>1</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
       <c r="L66" s="22">
         <v>69</v>
       </c>
-      <c r="M66" s="30"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="32"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="62"/>
       <c r="Q66" s="27"/>
       <c r="R66" s="1"/>
     </row>
@@ -4023,28 +4016,28 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
       <c r="G67" s="21">
         <v>15</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
       <c r="L67" s="22">
         <v>18</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="32"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="62"/>
       <c r="Q67" s="27"/>
       <c r="R67" s="1"/>
     </row>
@@ -4054,28 +4047,28 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
       <c r="G68" s="21">
         <v>9</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
       <c r="L68" s="22">
         <v>10</v>
       </c>
-      <c r="M68" s="30"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="32"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="62"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="1"/>
     </row>
@@ -4085,28 +4078,28 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
       <c r="G69" s="21">
         <v>2</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
       <c r="L69" s="22">
         <v>24</v>
       </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="32"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="62"/>
       <c r="Q69" s="27"/>
       <c r="R69" s="1"/>
     </row>
@@ -4116,28 +4109,28 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
       <c r="G70" s="21">
         <v>6</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
       <c r="L70" s="22">
         <v>13</v>
       </c>
-      <c r="M70" s="30"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="32"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="62"/>
       <c r="Q70" s="27"/>
       <c r="R70" s="1"/>
     </row>
@@ -4147,28 +4140,28 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
       <c r="G71" s="21">
         <v>10</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
       <c r="L71" s="22">
         <v>44</v>
       </c>
-      <c r="M71" s="30"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="32"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="62"/>
       <c r="Q71" s="27"/>
       <c r="R71" s="1"/>
     </row>
@@ -4178,28 +4171,28 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C72" s="84" t="s">
+      <c r="C72" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
       <c r="G72" s="21">
         <v>7</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
       <c r="L72" s="22">
         <v>148</v>
       </c>
-      <c r="M72" s="30"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="32"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="62"/>
       <c r="Q72" s="27"/>
       <c r="R72" s="1"/>
     </row>
@@ -4209,24 +4202,24 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
       <c r="G73" s="21">
         <v>2</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
       <c r="L73" s="22"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="32"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="62"/>
       <c r="Q73" s="27"/>
       <c r="R73" s="1"/>
     </row>
@@ -4236,24 +4229,24 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
       <c r="G74" s="21">
         <v>1</v>
       </c>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
       <c r="L74" s="22"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="32"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="62"/>
       <c r="Q74" s="27"/>
       <c r="R74" s="1"/>
     </row>
@@ -4263,68 +4256,68 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
       <c r="G75" s="21">
         <v>2</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
       <c r="L75" s="21"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="32"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="62"/>
       <c r="Q75" s="27"/>
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="75" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="78" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="78"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="1"/>
     </row>
@@ -4333,26 +4326,26 @@
       <c r="B78" s="10">
         <v>1</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
       <c r="G78" s="21">
         <v>12</v>
       </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
       <c r="L78" s="22"/>
-      <c r="M78" s="79" t="s">
+      <c r="M78" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="N78" s="80"/>
-      <c r="O78" s="80"/>
-      <c r="P78" s="80"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
       <c r="Q78" s="23">
         <v>30</v>
       </c>
@@ -4364,24 +4357,24 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
       <c r="G79" s="21">
         <v>26</v>
       </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
       <c r="L79" s="22"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="67"/>
+      <c r="O79" s="67"/>
+      <c r="P79" s="67"/>
       <c r="Q79" s="24"/>
       <c r="R79" s="1"/>
     </row>
@@ -4391,27 +4384,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
       <c r="G80" s="21">
         <v>16</v>
       </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
       <c r="L80" s="22"/>
-      <c r="M80" s="64" t="s">
+      <c r="M80" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="65"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="66"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="82"/>
+      <c r="Q80" s="83"/>
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4420,21 +4413,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
       <c r="G81" s="21"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
       <c r="L81" s="22"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="69"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="85"/>
+      <c r="Q81" s="86"/>
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -4443,20 +4436,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
       <c r="L82" s="22"/>
-      <c r="M82" s="70"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="67"/>
       <c r="Q82" s="23"/>
       <c r="R82" s="1"/>
     </row>
@@ -4466,20 +4459,20 @@
         <f t="shared" ref="B83:B103" si="1">B82+1</f>
         <v>6</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
       <c r="L83" s="22"/>
-      <c r="M83" s="70"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
       <c r="Q83" s="25"/>
       <c r="R83" s="1"/>
     </row>
@@ -4489,20 +4482,20 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="72"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="74"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="70"/>
       <c r="Q84" s="24"/>
       <c r="R84" s="1"/>
     </row>
@@ -4512,20 +4505,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
       <c r="G85" s="21"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
       <c r="L85" s="22"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="32"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="62"/>
       <c r="Q85" s="27"/>
       <c r="R85" s="1"/>
     </row>
@@ -4535,20 +4528,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
       <c r="L86" s="22"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="32"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="62"/>
       <c r="Q86" s="27"/>
       <c r="R86" s="1"/>
     </row>
@@ -4558,64 +4551,64 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="21"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
       <c r="L87" s="21"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="32"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="62"/>
       <c r="Q87" s="27"/>
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="75" t="s">
+      <c r="B88" s="29"/>
+      <c r="C88" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="78" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="78"/>
-      <c r="O88" s="78"/>
-      <c r="P88" s="78"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="78"/>
-      <c r="N89" s="78"/>
-      <c r="O89" s="78"/>
-      <c r="P89" s="78"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="1"/>
     </row>
@@ -4624,28 +4617,28 @@
       <c r="B90" s="10">
         <v>1</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="21">
         <v>1</v>
       </c>
-      <c r="H90" s="28" t="s">
+      <c r="H90" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
       <c r="L90" s="22">
         <v>9</v>
       </c>
-      <c r="M90" s="79"/>
-      <c r="N90" s="80"/>
-      <c r="O90" s="80"/>
-      <c r="P90" s="80"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="73"/>
+      <c r="O90" s="73"/>
+      <c r="P90" s="73"/>
       <c r="Q90" s="23"/>
       <c r="R90" s="1"/>
     </row>
@@ -4655,28 +4648,28 @@
         <f t="shared" ref="B91:B94" si="2">B90+1</f>
         <v>2</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
       <c r="G91" s="21">
         <v>1</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="H91" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
       <c r="L91" s="22">
         <v>6</v>
       </c>
-      <c r="M91" s="70"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
       <c r="Q91" s="24"/>
       <c r="R91" s="1"/>
     </row>
@@ -4686,31 +4679,31 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="21">
         <v>2</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="H92" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
       <c r="L92" s="22">
         <v>7</v>
       </c>
-      <c r="M92" s="64" t="s">
+      <c r="M92" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N92" s="65"/>
-      <c r="O92" s="65"/>
-      <c r="P92" s="65"/>
-      <c r="Q92" s="66"/>
+      <c r="N92" s="82"/>
+      <c r="O92" s="82"/>
+      <c r="P92" s="82"/>
+      <c r="Q92" s="83"/>
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4719,29 +4712,29 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
       <c r="G93" s="21">
         <v>2</v>
       </c>
-      <c r="H93" s="28" t="s">
+      <c r="H93" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
       <c r="L93" s="22">
         <v>9</v>
       </c>
-      <c r="M93" s="67"/>
-      <c r="N93" s="68"/>
-      <c r="O93" s="68"/>
-      <c r="P93" s="68"/>
-      <c r="Q93" s="69"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+      <c r="P93" s="85"/>
+      <c r="Q93" s="86"/>
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -4750,28 +4743,28 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
       <c r="G94" s="21">
         <v>1</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H94" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
       <c r="L94" s="22">
         <v>6</v>
       </c>
-      <c r="M94" s="70"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
+      <c r="M94" s="66"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
       <c r="Q94" s="23"/>
       <c r="R94" s="1"/>
     </row>
@@ -4781,28 +4774,28 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
       <c r="G95" s="21">
         <v>2</v>
       </c>
-      <c r="H95" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
+      <c r="H95" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
       <c r="L95" s="22">
         <v>2</v>
       </c>
-      <c r="M95" s="70"/>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="71"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
       <c r="Q95" s="25"/>
       <c r="R95" s="1"/>
     </row>
@@ -4812,28 +4805,28 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="21">
         <v>2</v>
       </c>
-      <c r="H96" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
+      <c r="H96" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
       <c r="L96" s="22">
         <v>1</v>
       </c>
-      <c r="M96" s="72"/>
-      <c r="N96" s="73"/>
-      <c r="O96" s="73"/>
-      <c r="P96" s="74"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="69"/>
+      <c r="P96" s="70"/>
       <c r="Q96" s="24"/>
       <c r="R96" s="1"/>
     </row>
@@ -4843,28 +4836,28 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
       <c r="G97" s="21">
         <v>2</v>
       </c>
-      <c r="H97" s="30" t="s">
+      <c r="H97" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="32"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="62"/>
       <c r="L97" s="22">
         <v>113</v>
       </c>
-      <c r="M97" s="30"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="32"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="62"/>
       <c r="Q97" s="26"/>
       <c r="R97" s="1"/>
     </row>
@@ -4874,28 +4867,28 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="21">
         <v>1</v>
       </c>
-      <c r="H98" s="30" t="s">
+      <c r="H98" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="32"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="62"/>
       <c r="L98" s="22">
         <v>120</v>
       </c>
-      <c r="M98" s="30"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="32"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="61"/>
+      <c r="P98" s="62"/>
       <c r="Q98" s="27"/>
       <c r="R98" s="1"/>
     </row>
@@ -4905,28 +4898,28 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
       <c r="G99" s="21">
         <v>1</v>
       </c>
-      <c r="H99" s="30" t="s">
+      <c r="H99" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="32"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="62"/>
       <c r="L99" s="22">
         <v>1</v>
       </c>
-      <c r="M99" s="30"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="32"/>
+      <c r="M99" s="60"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="61"/>
+      <c r="P99" s="62"/>
       <c r="Q99" s="27"/>
       <c r="R99" s="1"/>
     </row>
@@ -4936,28 +4929,28 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
       <c r="G100" s="21">
         <v>1</v>
       </c>
-      <c r="H100" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="32"/>
+      <c r="H100" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="62"/>
       <c r="L100" s="22">
         <v>1</v>
       </c>
-      <c r="M100" s="30"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="32"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="62"/>
       <c r="Q100" s="27"/>
       <c r="R100" s="1"/>
     </row>
@@ -4967,24 +4960,24 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
       <c r="G101" s="21">
         <v>12</v>
       </c>
-      <c r="H101" s="30"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="32"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="62"/>
       <c r="L101" s="22"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="32"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="62"/>
       <c r="Q101" s="27"/>
       <c r="R101" s="1"/>
     </row>
@@ -4994,24 +4987,24 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
       <c r="G102" s="21">
         <v>1</v>
       </c>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
       <c r="L102" s="22"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-      <c r="P102" s="32"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="61"/>
+      <c r="P102" s="62"/>
       <c r="Q102" s="27"/>
       <c r="R102" s="1"/>
     </row>
@@ -5021,24 +5014,24 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
       <c r="G103" s="21">
         <v>104</v>
       </c>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
       <c r="L103" s="22"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="32"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="61"/>
+      <c r="P103" s="62"/>
       <c r="Q103" s="27"/>
       <c r="R103" s="1"/>
     </row>
@@ -5048,66 +5041,66 @@
         <f>B103+1</f>
         <v>15</v>
       </c>
-      <c r="C104" s="61" t="s">
+      <c r="C104" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="63"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="80"/>
       <c r="G104" s="21">
         <v>48</v>
       </c>
-      <c r="H104" s="30"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="32"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="62"/>
       <c r="L104" s="21"/>
-      <c r="M104" s="30"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="32"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="61"/>
+      <c r="P104" s="62"/>
       <c r="Q104" s="21"/>
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="33" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="87"/>
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="K105" s="87"/>
+      <c r="L105" s="87"/>
+      <c r="M105" s="87"/>
+      <c r="N105" s="87"/>
+      <c r="O105" s="87"/>
+      <c r="P105" s="87"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
-      <c r="O106" s="34"/>
-      <c r="P106" s="34"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="88"/>
+      <c r="O106" s="88"/>
+      <c r="P106" s="88"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="1"/>
     </row>
@@ -5116,24 +5109,24 @@
       <c r="B107" s="10">
         <v>1</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
       <c r="G107" s="21">
         <v>42</v>
       </c>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
       <c r="L107" s="22"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="32"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="61"/>
+      <c r="O107" s="61"/>
+      <c r="P107" s="62"/>
       <c r="Q107" s="17"/>
       <c r="R107" s="1"/>
     </row>
@@ -5143,24 +5136,24 @@
         <f t="shared" ref="B108:B116" si="3">B107+1</f>
         <v>2</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
       <c r="G108" s="21">
         <v>161</v>
       </c>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
       <c r="L108" s="22"/>
-      <c r="M108" s="30"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="32"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="62"/>
       <c r="Q108" s="17"/>
       <c r="R108" s="1"/>
     </row>
@@ -5170,24 +5163,24 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C109" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
+      <c r="C109" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
       <c r="G109" s="21">
-        <v>177</v>
-      </c>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
       <c r="L109" s="22"/>
-      <c r="M109" s="30"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="32"/>
+      <c r="M109" s="60"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="61"/>
+      <c r="P109" s="62"/>
       <c r="Q109" s="17"/>
       <c r="R109" s="1"/>
     </row>
@@ -5197,24 +5190,24 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C110" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
+      <c r="C110" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
       <c r="G110" s="21">
-        <v>63</v>
-      </c>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
       <c r="L110" s="22"/>
-      <c r="M110" s="30"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="32"/>
+      <c r="M110" s="60"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="61"/>
+      <c r="P110" s="62"/>
       <c r="Q110" s="17"/>
       <c r="R110" s="1"/>
     </row>
@@ -5224,24 +5217,24 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C111" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
+      <c r="C111" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
       <c r="G111" s="21">
-        <v>18</v>
-      </c>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
+        <v>150</v>
+      </c>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
       <c r="L111" s="22"/>
-      <c r="M111" s="30"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
-      <c r="P111" s="32"/>
+      <c r="M111" s="60"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="62"/>
       <c r="Q111" s="17"/>
       <c r="R111" s="1"/>
     </row>
@@ -5251,24 +5244,24 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C112" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
+      <c r="C112" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
       <c r="G112" s="21">
-        <v>150</v>
-      </c>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
       <c r="L112" s="22"/>
-      <c r="M112" s="30"/>
-      <c r="N112" s="31"/>
-      <c r="O112" s="31"/>
-      <c r="P112" s="32"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="61"/>
+      <c r="P112" s="62"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="1"/>
     </row>
@@ -5278,24 +5271,24 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C113" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
+      <c r="C113" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
       <c r="G113" s="21">
-        <v>156</v>
-      </c>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
       <c r="L113" s="22"/>
-      <c r="M113" s="30"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="32"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="61"/>
+      <c r="O113" s="61"/>
+      <c r="P113" s="62"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="1"/>
     </row>
@@ -5305,24 +5298,24 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C114" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
+      <c r="C114" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
       <c r="G114" s="21">
-        <v>77</v>
-      </c>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="65"/>
       <c r="L114" s="22"/>
-      <c r="M114" s="30"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="32"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="61"/>
+      <c r="O114" s="61"/>
+      <c r="P114" s="62"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="1"/>
     </row>
@@ -5332,24 +5325,20 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C115" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="21">
-        <v>115</v>
-      </c>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
       <c r="L115" s="22"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
-      <c r="P115" s="32"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="61"/>
+      <c r="P115" s="62"/>
       <c r="Q115" s="17"/>
       <c r="R115" s="1"/>
     </row>
@@ -5359,544 +5348,544 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
       <c r="G116" s="21"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
       <c r="L116" s="21"/>
-      <c r="M116" s="30"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="31"/>
-      <c r="P116" s="32"/>
+      <c r="M116" s="60"/>
+      <c r="N116" s="61"/>
+      <c r="O116" s="61"/>
+      <c r="P116" s="62"/>
       <c r="Q116" s="17"/>
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="11"/>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="86"/>
-      <c r="I117" s="86"/>
-      <c r="J117" s="88">
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="56">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>42363</v>
-      </c>
-      <c r="K117" s="88"/>
-      <c r="L117" s="88"/>
-      <c r="M117" s="88"/>
-      <c r="N117" s="90"/>
-      <c r="O117" s="90"/>
-      <c r="P117" s="90"/>
+        <v>42400</v>
+      </c>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="58"/>
+      <c r="O117" s="58"/>
+      <c r="P117" s="58"/>
       <c r="Q117" s="18"/>
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="12"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="87"/>
-      <c r="E118" s="87"/>
-      <c r="F118" s="87"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="87"/>
-      <c r="I118" s="87"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="89"/>
-      <c r="M118" s="89"/>
-      <c r="N118" s="91"/>
-      <c r="O118" s="91"/>
-      <c r="P118" s="91"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="57"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="59"/>
       <c r="Q118" s="19"/>
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="12"/>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="52" t="s">
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="50"/>
-      <c r="M119" s="52" t="s">
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="N119" s="53"/>
-      <c r="O119" s="53"/>
-      <c r="P119" s="54"/>
+      <c r="N119" s="49"/>
+      <c r="O119" s="49"/>
+      <c r="P119" s="50"/>
       <c r="Q119" s="19"/>
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="12"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="57"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="55"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="57"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="52"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="52"/>
+      <c r="O120" s="52"/>
+      <c r="P120" s="53"/>
       <c r="Q120" s="19"/>
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="12"/>
-      <c r="C121" s="44" t="s">
+      <c r="C121" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="D121" s="98"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="99"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="I121" s="98"/>
+      <c r="J121" s="98"/>
+      <c r="K121" s="99"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="50"/>
-      <c r="M121" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="N121" s="45"/>
-      <c r="O121" s="45"/>
-      <c r="P121" s="46"/>
+      <c r="N121" s="98"/>
+      <c r="O121" s="98"/>
+      <c r="P121" s="99"/>
       <c r="Q121" s="19"/>
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="12"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="47"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="49"/>
-      <c r="L122" s="51"/>
-      <c r="M122" s="47"/>
-      <c r="N122" s="48"/>
-      <c r="O122" s="48"/>
-      <c r="P122" s="49"/>
+      <c r="C122" s="100"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="102"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="100"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="102"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="100"/>
+      <c r="N122" s="101"/>
+      <c r="O122" s="101"/>
+      <c r="P122" s="102"/>
       <c r="Q122" s="19"/>
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="12"/>
-      <c r="C123" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33"/>
-      <c r="K123" s="33"/>
-      <c r="L123" s="33"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33"/>
-      <c r="O123" s="33"/>
-      <c r="P123" s="33"/>
+      <c r="C123" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" s="87"/>
+      <c r="E123" s="87"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="87"/>
+      <c r="H123" s="87"/>
+      <c r="I123" s="87"/>
+      <c r="J123" s="87"/>
+      <c r="K123" s="87"/>
+      <c r="L123" s="87"/>
+      <c r="M123" s="87"/>
+      <c r="N123" s="87"/>
+      <c r="O123" s="87"/>
+      <c r="P123" s="87"/>
       <c r="Q123" s="19"/>
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="12"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="34"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="34"/>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
+      <c r="C124" s="88"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="88"/>
+      <c r="J124" s="88"/>
+      <c r="K124" s="88"/>
+      <c r="L124" s="88"/>
+      <c r="M124" s="88"/>
+      <c r="N124" s="88"/>
+      <c r="O124" s="88"/>
+      <c r="P124" s="88"/>
       <c r="Q124" s="19"/>
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="12"/>
-      <c r="C125" s="35">
+      <c r="C125" s="89">
         <f>SUM(G14:G43,L14:L43,Q21:Q43,G46:G75,L46:L75,Q53:Q75,G78:G87,L78:L87,Q85:Q87,G90:G104,L90:L104,Q97:Q104)</f>
-        <v>3595</v>
-      </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="39" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D125" s="90"/>
+      <c r="E125" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" s="94"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="89">
+        <f>SUM(Q14:Q15,Q18:Q20,Q46:Q47,Q50:Q52,Q78:Q79,Q82:Q84,Q90:Q91,Q94:Q96)</f>
+        <v>287</v>
+      </c>
+      <c r="I125" s="90"/>
+      <c r="J125" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="F125" s="40"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="35">
-        <f>SUM(Q14:Q15,Q18:Q20,Q46:Q47,Q50:Q52,Q78:Q79,Q82:Q84,Q90:Q91,Q94:Q96)</f>
-        <v>208</v>
-      </c>
-      <c r="I125" s="36"/>
-      <c r="J125" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="K125" s="40"/>
-      <c r="L125" s="50"/>
-      <c r="M125" s="35">
+      <c r="K125" s="94"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="89">
         <f>SUM(G107:G116,L107:L116)</f>
-        <v>959</v>
-      </c>
-      <c r="N125" s="36"/>
-      <c r="O125" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="P125" s="40"/>
+        <v>782</v>
+      </c>
+      <c r="N125" s="90"/>
+      <c r="O125" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="P125" s="94"/>
       <c r="Q125" s="19"/>
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="12"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="42"/>
-      <c r="L126" s="51"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="38"/>
-      <c r="O126" s="41"/>
-      <c r="P126" s="42"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="91"/>
+      <c r="I126" s="92"/>
+      <c r="J126" s="95"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="46"/>
+      <c r="M126" s="91"/>
+      <c r="N126" s="92"/>
+      <c r="O126" s="95"/>
+      <c r="P126" s="96"/>
       <c r="Q126" s="19"/>
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="13"/>
-      <c r="C127" s="95"/>
-      <c r="D127" s="95"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="95"/>
-      <c r="G127" s="95"/>
-      <c r="H127" s="95"/>
-      <c r="I127" s="95"/>
-      <c r="J127" s="95"/>
-      <c r="K127" s="95"/>
-      <c r="L127" s="95"/>
-      <c r="M127" s="95"/>
-      <c r="N127" s="95"/>
-      <c r="O127" s="95"/>
-      <c r="P127" s="95"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
+      <c r="L127" s="47"/>
+      <c r="M127" s="47"/>
+      <c r="N127" s="47"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="47"/>
       <c r="Q127" s="20"/>
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="92"/>
-      <c r="F128" s="92"/>
-      <c r="H128" s="93"/>
-      <c r="I128" s="93"/>
-      <c r="J128" s="93"/>
-      <c r="K128" s="93"/>
-      <c r="M128" s="93"/>
-      <c r="N128" s="93"/>
-      <c r="O128" s="93"/>
-      <c r="P128" s="93"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="39"/>
+      <c r="M128" s="39"/>
+      <c r="N128" s="39"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="39"/>
       <c r="Q128" s="14"/>
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="94"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="92"/>
-      <c r="F129" s="92"/>
-      <c r="H129" s="93"/>
-      <c r="I129" s="93"/>
-      <c r="J129" s="93"/>
-      <c r="K129" s="93"/>
-      <c r="M129" s="93"/>
-      <c r="N129" s="93"/>
-      <c r="O129" s="93"/>
-      <c r="P129" s="93"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="39"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="39"/>
       <c r="Q129" s="14"/>
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="94"/>
-      <c r="D130" s="92"/>
-      <c r="E130" s="92"/>
-      <c r="F130" s="92"/>
-      <c r="H130" s="93"/>
-      <c r="I130" s="93"/>
-      <c r="J130" s="93"/>
-      <c r="K130" s="93"/>
-      <c r="M130" s="93"/>
-      <c r="N130" s="93"/>
-      <c r="O130" s="93"/>
-      <c r="P130" s="93"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
+      <c r="M130" s="39"/>
+      <c r="N130" s="39"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="39"/>
       <c r="Q130" s="14"/>
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="92"/>
-      <c r="F131" s="92"/>
-      <c r="H131" s="93"/>
-      <c r="I131" s="93"/>
-      <c r="J131" s="93"/>
-      <c r="K131" s="93"/>
-      <c r="M131" s="93"/>
-      <c r="N131" s="93"/>
-      <c r="O131" s="93"/>
-      <c r="P131" s="93"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="39"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="39"/>
       <c r="Q131" s="14"/>
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="92"/>
-      <c r="E132" s="92"/>
-      <c r="F132" s="92"/>
-      <c r="H132" s="93"/>
-      <c r="I132" s="93"/>
-      <c r="J132" s="93"/>
-      <c r="K132" s="93"/>
-      <c r="M132" s="93"/>
-      <c r="N132" s="93"/>
-      <c r="O132" s="93"/>
-      <c r="P132" s="93"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="39"/>
+      <c r="O132" s="39"/>
+      <c r="P132" s="39"/>
       <c r="Q132" s="14"/>
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="H133" s="93"/>
-      <c r="I133" s="93"/>
-      <c r="J133" s="93"/>
-      <c r="K133" s="93"/>
-      <c r="M133" s="93"/>
-      <c r="N133" s="93"/>
-      <c r="O133" s="93"/>
-      <c r="P133" s="93"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="39"/>
       <c r="Q133" s="14"/>
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="92"/>
-      <c r="E134" s="92"/>
-      <c r="F134" s="92"/>
-      <c r="H134" s="93"/>
-      <c r="I134" s="93"/>
-      <c r="J134" s="93"/>
-      <c r="K134" s="93"/>
-      <c r="M134" s="93"/>
-      <c r="N134" s="93"/>
-      <c r="O134" s="93"/>
-      <c r="P134" s="93"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="39"/>
+      <c r="M134" s="39"/>
+      <c r="N134" s="39"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="39"/>
       <c r="Q134" s="14"/>
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="92"/>
-      <c r="F135" s="92"/>
-      <c r="H135" s="93"/>
-      <c r="I135" s="93"/>
-      <c r="J135" s="93"/>
-      <c r="K135" s="93"/>
-      <c r="M135" s="93"/>
-      <c r="N135" s="93"/>
-      <c r="O135" s="93"/>
-      <c r="P135" s="93"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
+      <c r="M135" s="39"/>
+      <c r="N135" s="39"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="39"/>
       <c r="Q135" s="14"/>
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="5"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="92"/>
-      <c r="E136" s="92"/>
-      <c r="F136" s="92"/>
-      <c r="H136" s="93"/>
-      <c r="I136" s="93"/>
-      <c r="J136" s="93"/>
-      <c r="K136" s="93"/>
-      <c r="M136" s="93"/>
-      <c r="N136" s="93"/>
-      <c r="O136" s="93"/>
-      <c r="P136" s="93"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="M136" s="39"/>
+      <c r="N136" s="39"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="39"/>
       <c r="Q136" s="14"/>
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="92"/>
-      <c r="F137" s="92"/>
-      <c r="H137" s="93"/>
-      <c r="I137" s="93"/>
-      <c r="J137" s="93"/>
-      <c r="K137" s="93"/>
-      <c r="M137" s="93"/>
-      <c r="N137" s="93"/>
-      <c r="O137" s="93"/>
-      <c r="P137" s="93"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
+      <c r="M137" s="39"/>
+      <c r="N137" s="39"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="39"/>
       <c r="Q137" s="14"/>
       <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="92"/>
-      <c r="F138" s="92"/>
-      <c r="H138" s="93"/>
-      <c r="I138" s="93"/>
-      <c r="J138" s="93"/>
-      <c r="K138" s="93"/>
-      <c r="M138" s="93"/>
-      <c r="N138" s="93"/>
-      <c r="O138" s="93"/>
-      <c r="P138" s="93"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="39"/>
+      <c r="M138" s="39"/>
+      <c r="N138" s="39"/>
+      <c r="O138" s="39"/>
+      <c r="P138" s="39"/>
       <c r="Q138" s="14"/>
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="5"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="92"/>
-      <c r="F139" s="92"/>
-      <c r="H139" s="93"/>
-      <c r="I139" s="93"/>
-      <c r="J139" s="93"/>
-      <c r="K139" s="93"/>
-      <c r="M139" s="93"/>
-      <c r="N139" s="93"/>
-      <c r="O139" s="93"/>
-      <c r="P139" s="93"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
+      <c r="M139" s="39"/>
+      <c r="N139" s="39"/>
+      <c r="O139" s="39"/>
+      <c r="P139" s="39"/>
       <c r="Q139" s="14"/>
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="92"/>
-      <c r="F140" s="92"/>
-      <c r="H140" s="93"/>
-      <c r="I140" s="93"/>
-      <c r="J140" s="93"/>
-      <c r="K140" s="93"/>
-      <c r="M140" s="93"/>
-      <c r="N140" s="93"/>
-      <c r="O140" s="93"/>
-      <c r="P140" s="93"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
+      <c r="M140" s="39"/>
+      <c r="N140" s="39"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
       <c r="Q140" s="14"/>
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="H141" s="93"/>
-      <c r="I141" s="93"/>
-      <c r="J141" s="93"/>
-      <c r="K141" s="93"/>
-      <c r="M141" s="93"/>
-      <c r="N141" s="93"/>
-      <c r="O141" s="93"/>
-      <c r="P141" s="93"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
+      <c r="M141" s="39"/>
+      <c r="N141" s="39"/>
+      <c r="O141" s="39"/>
+      <c r="P141" s="39"/>
       <c r="Q141" s="14"/>
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="92"/>
-      <c r="F142" s="92"/>
-      <c r="H142" s="93"/>
-      <c r="I142" s="93"/>
-      <c r="J142" s="93"/>
-      <c r="K142" s="93"/>
-      <c r="M142" s="93"/>
-      <c r="N142" s="93"/>
-      <c r="O142" s="93"/>
-      <c r="P142" s="93"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
+      <c r="M142" s="39"/>
+      <c r="N142" s="39"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="39"/>
       <c r="Q142" s="14"/>
       <c r="R142" s="1"/>
     </row>
@@ -5941,421 +5930,860 @@
       <c r="R144" s="1"/>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C147" s="104"/>
-      <c r="D147" s="104"/>
-      <c r="E147" s="104"/>
-      <c r="F147" s="104"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="104"/>
-      <c r="D148" s="104"/>
-      <c r="E148" s="104"/>
-      <c r="F148" s="104"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C149" s="104"/>
-      <c r="D149" s="104"/>
-      <c r="E149" s="104"/>
-      <c r="F149" s="104"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C150" s="104"/>
-      <c r="D150" s="104"/>
-      <c r="E150" s="104"/>
-      <c r="F150" s="104"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C151" s="104"/>
-      <c r="D151" s="104"/>
-      <c r="E151" s="104"/>
-      <c r="F151" s="104"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C152" s="104"/>
-      <c r="D152" s="104"/>
-      <c r="E152" s="104"/>
-      <c r="F152" s="104"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C153" s="104"/>
-      <c r="D153" s="104"/>
-      <c r="E153" s="104"/>
-      <c r="F153" s="104"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C154" s="104"/>
-      <c r="D154" s="104"/>
-      <c r="E154" s="104"/>
-      <c r="F154" s="104"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C155" s="104"/>
-      <c r="D155" s="104"/>
-      <c r="E155" s="104"/>
-      <c r="F155" s="104"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C156" s="104"/>
-      <c r="D156" s="104"/>
-      <c r="E156" s="104"/>
-      <c r="F156" s="104"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
-      <c r="F157" s="104"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C158" s="104"/>
-      <c r="D158" s="104"/>
-      <c r="E158" s="104"/>
-      <c r="F158" s="104"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="104"/>
-      <c r="D159" s="104"/>
-      <c r="E159" s="104"/>
-      <c r="F159" s="104"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C160" s="104"/>
-      <c r="D160" s="104"/>
-      <c r="E160" s="104"/>
-      <c r="F160" s="104"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
     </row>
     <row r="161" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C161" s="104"/>
-      <c r="D161" s="104"/>
-      <c r="E161" s="104"/>
-      <c r="F161" s="104"/>
-      <c r="P161" s="104"/>
-      <c r="Q161" s="104"/>
-      <c r="R161" s="104"/>
-      <c r="S161" s="104"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="P161" s="28"/>
+      <c r="Q161" s="28"/>
+      <c r="R161" s="28"/>
+      <c r="S161" s="28"/>
     </row>
     <row r="162" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C162" s="104"/>
-      <c r="D162" s="104"/>
-      <c r="E162" s="104"/>
-      <c r="F162" s="104"/>
-      <c r="P162" s="104"/>
-      <c r="Q162" s="104"/>
-      <c r="R162" s="104"/>
-      <c r="S162" s="104"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="P162" s="28"/>
+      <c r="Q162" s="28"/>
+      <c r="R162" s="28"/>
+      <c r="S162" s="28"/>
     </row>
     <row r="163" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C163" s="104"/>
-      <c r="D163" s="104"/>
-      <c r="E163" s="104"/>
-      <c r="F163" s="104"/>
-      <c r="P163" s="104"/>
-      <c r="Q163" s="104"/>
-      <c r="R163" s="104"/>
-      <c r="S163" s="104"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="P163" s="28"/>
+      <c r="Q163" s="28"/>
+      <c r="R163" s="28"/>
+      <c r="S163" s="28"/>
     </row>
     <row r="164" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C164" s="104"/>
-      <c r="D164" s="104"/>
-      <c r="E164" s="104"/>
-      <c r="F164" s="104"/>
-      <c r="P164" s="104"/>
-      <c r="Q164" s="104"/>
-      <c r="R164" s="104"/>
-      <c r="S164" s="104"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="P164" s="28"/>
+      <c r="Q164" s="28"/>
+      <c r="R164" s="28"/>
+      <c r="S164" s="28"/>
     </row>
     <row r="165" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C165" s="104"/>
-      <c r="D165" s="104"/>
-      <c r="E165" s="104"/>
-      <c r="F165" s="104"/>
-      <c r="P165" s="104"/>
-      <c r="Q165" s="104"/>
-      <c r="R165" s="104"/>
-      <c r="S165" s="104"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="P165" s="28"/>
+      <c r="Q165" s="28"/>
+      <c r="R165" s="28"/>
+      <c r="S165" s="28"/>
     </row>
     <row r="166" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C166" s="104"/>
-      <c r="D166" s="104"/>
-      <c r="E166" s="104"/>
-      <c r="F166" s="104"/>
-      <c r="P166" s="104"/>
-      <c r="Q166" s="104"/>
-      <c r="R166" s="104"/>
-      <c r="S166" s="104"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="P166" s="28"/>
+      <c r="Q166" s="28"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="28"/>
     </row>
     <row r="167" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C167" s="104"/>
-      <c r="D167" s="104"/>
-      <c r="E167" s="104"/>
-      <c r="F167" s="104"/>
-      <c r="P167" s="104"/>
-      <c r="Q167" s="104"/>
-      <c r="R167" s="104"/>
-      <c r="S167" s="104"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="P167" s="28"/>
+      <c r="Q167" s="28"/>
+      <c r="R167" s="28"/>
+      <c r="S167" s="28"/>
     </row>
     <row r="168" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
-      <c r="F168" s="104"/>
-      <c r="P168" s="104"/>
-      <c r="Q168" s="104"/>
-      <c r="R168" s="104"/>
-      <c r="S168" s="104"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="P168" s="28"/>
+      <c r="Q168" s="28"/>
+      <c r="R168" s="28"/>
+      <c r="S168" s="28"/>
     </row>
     <row r="169" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C169" s="104"/>
-      <c r="D169" s="104"/>
-      <c r="E169" s="104"/>
-      <c r="F169" s="104"/>
-      <c r="P169" s="104"/>
-      <c r="Q169" s="104"/>
-      <c r="R169" s="104"/>
-      <c r="S169" s="104"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="P169" s="28"/>
+      <c r="Q169" s="28"/>
+      <c r="R169" s="28"/>
+      <c r="S169" s="28"/>
     </row>
     <row r="170" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C170" s="104"/>
-      <c r="D170" s="104"/>
-      <c r="E170" s="104"/>
-      <c r="F170" s="104"/>
-      <c r="P170" s="104"/>
-      <c r="Q170" s="104"/>
-      <c r="R170" s="104"/>
-      <c r="S170" s="104"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="P170" s="28"/>
+      <c r="Q170" s="28"/>
+      <c r="R170" s="28"/>
+      <c r="S170" s="28"/>
     </row>
     <row r="171" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="104"/>
-      <c r="P171" s="104"/>
-      <c r="Q171" s="104"/>
-      <c r="R171" s="104"/>
-      <c r="S171" s="104"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="P171" s="28"/>
+      <c r="Q171" s="28"/>
+      <c r="R171" s="28"/>
+      <c r="S171" s="28"/>
     </row>
     <row r="172" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C172" s="104"/>
-      <c r="D172" s="104"/>
-      <c r="E172" s="104"/>
-      <c r="F172" s="104"/>
-      <c r="P172" s="104"/>
-      <c r="Q172" s="104"/>
-      <c r="R172" s="104"/>
-      <c r="S172" s="104"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="P172" s="28"/>
+      <c r="Q172" s="28"/>
+      <c r="R172" s="28"/>
+      <c r="S172" s="28"/>
     </row>
     <row r="173" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C173" s="104"/>
-      <c r="D173" s="104"/>
-      <c r="E173" s="104"/>
-      <c r="F173" s="104"/>
-      <c r="P173" s="104"/>
-      <c r="Q173" s="104"/>
-      <c r="R173" s="104"/>
-      <c r="S173" s="104"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="P173" s="28"/>
+      <c r="Q173" s="28"/>
+      <c r="R173" s="28"/>
+      <c r="S173" s="28"/>
     </row>
     <row r="174" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C174" s="104"/>
-      <c r="D174" s="104"/>
-      <c r="E174" s="104"/>
-      <c r="F174" s="104"/>
-      <c r="P174" s="104"/>
-      <c r="Q174" s="104"/>
-      <c r="R174" s="104"/>
-      <c r="S174" s="104"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="P174" s="28"/>
+      <c r="Q174" s="28"/>
+      <c r="R174" s="28"/>
+      <c r="S174" s="28"/>
     </row>
     <row r="175" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C175" s="104"/>
-      <c r="D175" s="104"/>
-      <c r="E175" s="104"/>
-      <c r="F175" s="104"/>
-      <c r="P175" s="104"/>
-      <c r="Q175" s="104"/>
-      <c r="R175" s="104"/>
-      <c r="S175" s="104"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="P175" s="28"/>
+      <c r="Q175" s="28"/>
+      <c r="R175" s="28"/>
+      <c r="S175" s="28"/>
     </row>
     <row r="176" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C176" s="104"/>
-      <c r="D176" s="104"/>
-      <c r="E176" s="104"/>
-      <c r="F176" s="104"/>
-      <c r="P176" s="104"/>
-      <c r="Q176" s="104"/>
-      <c r="R176" s="104"/>
-      <c r="S176" s="104"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="P176" s="28"/>
+      <c r="Q176" s="28"/>
+      <c r="R176" s="28"/>
+      <c r="S176" s="28"/>
     </row>
     <row r="177" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C177" s="104"/>
-      <c r="D177" s="104"/>
-      <c r="E177" s="104"/>
-      <c r="F177" s="104"/>
-      <c r="P177" s="104"/>
-      <c r="Q177" s="104"/>
-      <c r="R177" s="104"/>
-      <c r="S177" s="104"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="P177" s="28"/>
+      <c r="Q177" s="28"/>
+      <c r="R177" s="28"/>
+      <c r="S177" s="28"/>
     </row>
     <row r="178" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C178" s="104"/>
-      <c r="D178" s="104"/>
-      <c r="E178" s="104"/>
-      <c r="F178" s="104"/>
-      <c r="P178" s="104"/>
-      <c r="Q178" s="104"/>
-      <c r="R178" s="104"/>
-      <c r="S178" s="104"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="P178" s="28"/>
+      <c r="Q178" s="28"/>
+      <c r="R178" s="28"/>
+      <c r="S178" s="28"/>
     </row>
     <row r="179" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C179" s="104"/>
-      <c r="D179" s="104"/>
-      <c r="E179" s="104"/>
-      <c r="F179" s="104"/>
-      <c r="P179" s="104"/>
-      <c r="Q179" s="104"/>
-      <c r="R179" s="104"/>
-      <c r="S179" s="104"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="P179" s="28"/>
+      <c r="Q179" s="28"/>
+      <c r="R179" s="28"/>
+      <c r="S179" s="28"/>
     </row>
     <row r="180" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C180" s="104"/>
-      <c r="D180" s="104"/>
-      <c r="E180" s="104"/>
-      <c r="F180" s="104"/>
-      <c r="P180" s="104"/>
-      <c r="Q180" s="104"/>
-      <c r="R180" s="104"/>
-      <c r="S180" s="104"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="P180" s="28"/>
+      <c r="Q180" s="28"/>
+      <c r="R180" s="28"/>
+      <c r="S180" s="28"/>
     </row>
     <row r="181" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C181" s="104"/>
-      <c r="D181" s="104"/>
-      <c r="E181" s="104"/>
-      <c r="F181" s="104"/>
-      <c r="P181" s="104"/>
-      <c r="Q181" s="104"/>
-      <c r="R181" s="104"/>
-      <c r="S181" s="104"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="P181" s="28"/>
+      <c r="Q181" s="28"/>
+      <c r="R181" s="28"/>
+      <c r="S181" s="28"/>
     </row>
     <row r="182" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C182" s="104"/>
-      <c r="D182" s="104"/>
-      <c r="E182" s="104"/>
-      <c r="F182" s="104"/>
-      <c r="P182" s="104"/>
-      <c r="Q182" s="104"/>
-      <c r="R182" s="104"/>
-      <c r="S182" s="104"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="P182" s="28"/>
+      <c r="Q182" s="28"/>
+      <c r="R182" s="28"/>
+      <c r="S182" s="28"/>
     </row>
     <row r="183" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C183" s="104"/>
-      <c r="D183" s="104"/>
-      <c r="E183" s="104"/>
-      <c r="F183" s="104"/>
-      <c r="P183" s="104"/>
-      <c r="Q183" s="104"/>
-      <c r="R183" s="104"/>
-      <c r="S183" s="104"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="P183" s="28"/>
+      <c r="Q183" s="28"/>
+      <c r="R183" s="28"/>
+      <c r="S183" s="28"/>
     </row>
     <row r="184" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C184" s="104"/>
-      <c r="D184" s="104"/>
-      <c r="E184" s="104"/>
-      <c r="F184" s="104"/>
-      <c r="P184" s="104"/>
-      <c r="Q184" s="104"/>
-      <c r="R184" s="104"/>
-      <c r="S184" s="104"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="P184" s="28"/>
+      <c r="Q184" s="28"/>
+      <c r="R184" s="28"/>
+      <c r="S184" s="28"/>
     </row>
     <row r="185" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C185" s="104"/>
-      <c r="D185" s="104"/>
-      <c r="E185" s="104"/>
-      <c r="F185" s="104"/>
-      <c r="P185" s="104"/>
-      <c r="Q185" s="104"/>
-      <c r="R185" s="104"/>
-      <c r="S185" s="104"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="P185" s="28"/>
+      <c r="Q185" s="28"/>
+      <c r="R185" s="28"/>
+      <c r="S185" s="28"/>
     </row>
     <row r="186" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C186" s="104"/>
-      <c r="D186" s="104"/>
-      <c r="E186" s="104"/>
-      <c r="F186" s="104"/>
-      <c r="P186" s="104"/>
-      <c r="Q186" s="104"/>
-      <c r="R186" s="104"/>
-      <c r="S186" s="104"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="P186" s="28"/>
+      <c r="Q186" s="28"/>
+      <c r="R186" s="28"/>
+      <c r="S186" s="28"/>
     </row>
     <row r="187" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C187" s="104"/>
-      <c r="D187" s="104"/>
-      <c r="E187" s="104"/>
-      <c r="F187" s="104"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
     </row>
     <row r="188" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C188" s="104"/>
-      <c r="D188" s="104"/>
-      <c r="E188" s="104"/>
-      <c r="F188" s="104"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
     </row>
     <row r="189" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C189" s="104"/>
-      <c r="D189" s="104"/>
-      <c r="E189" s="104"/>
-      <c r="F189" s="104"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
     </row>
     <row r="190" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
-      <c r="F190" s="104"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
     </row>
     <row r="191" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C191" s="104"/>
-      <c r="D191" s="104"/>
-      <c r="E191" s="104"/>
-      <c r="F191" s="104"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
     </row>
     <row r="192" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C192" s="104"/>
-      <c r="D192" s="104"/>
-      <c r="E192" s="104"/>
-      <c r="F192" s="104"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
     </row>
     <row r="193" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C193" s="104"/>
-      <c r="D193" s="104"/>
-      <c r="E193" s="104"/>
-      <c r="F193" s="104"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
     </row>
     <row r="194" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C194" s="104"/>
-      <c r="D194" s="104"/>
-      <c r="E194" s="104"/>
-      <c r="F194" s="104"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
     </row>
     <row r="195" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C195" s="104"/>
-      <c r="D195" s="104"/>
-      <c r="E195" s="104"/>
-      <c r="F195" s="104"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
     </row>
     <row r="196" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C196" s="104"/>
-      <c r="D196" s="104"/>
-      <c r="E196" s="104"/>
-      <c r="F196" s="104"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
     </row>
     <row r="197" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C197" s="104"/>
-      <c r="D197" s="104"/>
-      <c r="E197" s="104"/>
-      <c r="F197" s="104"/>
-      <c r="H197" s="104"/>
-      <c r="I197" s="104"/>
-      <c r="J197" s="104"/>
-      <c r="K197" s="104"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="463">
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="C105:P106"/>
+    <mergeCell ref="M125:N126"/>
+    <mergeCell ref="H125:I126"/>
+    <mergeCell ref="J125:K126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="E125:F126"/>
+    <mergeCell ref="O125:P126"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C121:F122"/>
+    <mergeCell ref="H121:K122"/>
+    <mergeCell ref="M121:P122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="C123:P124"/>
+    <mergeCell ref="C119:F120"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="M103:P103"/>
+    <mergeCell ref="M101:P101"/>
+    <mergeCell ref="M102:P102"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="M104:P104"/>
+    <mergeCell ref="M16:Q17"/>
+    <mergeCell ref="M48:Q49"/>
+    <mergeCell ref="M80:Q81"/>
+    <mergeCell ref="M92:Q93"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="M99:P99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="M100:P100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="M97:P97"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:K89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:P89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="M91:P91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="H76:K77"/>
+    <mergeCell ref="M76:P77"/>
+    <mergeCell ref="C76:F77"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="H119:K120"/>
+    <mergeCell ref="M119:P120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="C117:I118"/>
+    <mergeCell ref="J117:M118"/>
+    <mergeCell ref="N117:P118"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="M128:P128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="M129:P129"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="C127:P127"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="M132:P132"/>
+    <mergeCell ref="C133:F133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="M133:P133"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="M130:P130"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="M131:P131"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="M137:P137"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="M134:P134"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="M142:P142"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="M140:P140"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="M141:P141"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="M138:P138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="M139:P139"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C9:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C156:F156"/>
+    <mergeCell ref="C157:F157"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="C160:F160"/>
+    <mergeCell ref="C161:F161"/>
+    <mergeCell ref="H197:K197"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="C155:F155"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C163:F163"/>
+    <mergeCell ref="C164:F164"/>
+    <mergeCell ref="C165:F165"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C194:F194"/>
+    <mergeCell ref="C195:F195"/>
+    <mergeCell ref="C196:F196"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="C187:F187"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="P164:S164"/>
+    <mergeCell ref="P165:S165"/>
+    <mergeCell ref="P166:S166"/>
+    <mergeCell ref="P167:S167"/>
+    <mergeCell ref="P168:S168"/>
+    <mergeCell ref="P161:S161"/>
+    <mergeCell ref="P162:S162"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="C181:F181"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="C168:F168"/>
+    <mergeCell ref="C169:F169"/>
+    <mergeCell ref="C170:F170"/>
+    <mergeCell ref="C167:F167"/>
     <mergeCell ref="P185:S185"/>
     <mergeCell ref="P186:S186"/>
     <mergeCell ref="P181:S181"/>
@@ -6380,445 +6808,6 @@
     <mergeCell ref="P173:S173"/>
     <mergeCell ref="P174:S174"/>
     <mergeCell ref="P163:S163"/>
-    <mergeCell ref="P164:S164"/>
-    <mergeCell ref="P165:S165"/>
-    <mergeCell ref="P166:S166"/>
-    <mergeCell ref="P167:S167"/>
-    <mergeCell ref="P168:S168"/>
-    <mergeCell ref="P161:S161"/>
-    <mergeCell ref="P162:S162"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="C181:F181"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C183:F183"/>
-    <mergeCell ref="C184:F184"/>
-    <mergeCell ref="C185:F185"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="C168:F168"/>
-    <mergeCell ref="C169:F169"/>
-    <mergeCell ref="C170:F170"/>
-    <mergeCell ref="C167:F167"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C194:F194"/>
-    <mergeCell ref="C195:F195"/>
-    <mergeCell ref="C196:F196"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="C187:F187"/>
-    <mergeCell ref="C188:F188"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="C190:F190"/>
-    <mergeCell ref="C191:F191"/>
-    <mergeCell ref="C156:F156"/>
-    <mergeCell ref="C157:F157"/>
-    <mergeCell ref="C158:F158"/>
-    <mergeCell ref="C159:F159"/>
-    <mergeCell ref="C160:F160"/>
-    <mergeCell ref="C161:F161"/>
-    <mergeCell ref="H197:K197"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="C155:F155"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C163:F163"/>
-    <mergeCell ref="C164:F164"/>
-    <mergeCell ref="C165:F165"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C9:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="M142:P142"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="C140:F140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="M140:P140"/>
-    <mergeCell ref="C141:F141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="M141:P141"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="M138:P138"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="M139:P139"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="M137:P137"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="M134:P134"/>
-    <mergeCell ref="C135:F135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="C133:F133"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="M133:P133"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="M130:P130"/>
-    <mergeCell ref="C131:F131"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="M131:P131"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="M129:P129"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="C127:P127"/>
-    <mergeCell ref="C132:F132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="M132:P132"/>
-    <mergeCell ref="H119:K120"/>
-    <mergeCell ref="M119:P120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="C117:I118"/>
-    <mergeCell ref="J117:M118"/>
-    <mergeCell ref="N117:P118"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="M128:P128"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="H76:K77"/>
-    <mergeCell ref="M76:P77"/>
-    <mergeCell ref="C76:F77"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="M97:P97"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:K89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:P89"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="M90:P90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="M91:P91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="M103:P103"/>
-    <mergeCell ref="M101:P101"/>
-    <mergeCell ref="M102:P102"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="M104:P104"/>
-    <mergeCell ref="M16:Q17"/>
-    <mergeCell ref="M48:Q49"/>
-    <mergeCell ref="M80:Q81"/>
-    <mergeCell ref="M92:Q93"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="M99:P99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="M100:P100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="C105:P106"/>
-    <mergeCell ref="M125:N126"/>
-    <mergeCell ref="H125:I126"/>
-    <mergeCell ref="J125:K126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="E125:F126"/>
-    <mergeCell ref="O125:P126"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C121:F122"/>
-    <mergeCell ref="H121:K122"/>
-    <mergeCell ref="M121:P122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="C123:P124"/>
-    <mergeCell ref="C119:F120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
